--- a/soft_cime/static/doc/Statistiques Consolidées.xlsx
+++ b/soft_cime/static/doc/Statistiques Consolidées.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="AVRIL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="147">
   <si>
     <t>MINISTÈRE DES FINANCES</t>
   </si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">MOIS : </t>
-  </si>
-  <si>
-    <t>AVRIL</t>
   </si>
   <si>
     <r>
@@ -632,7 +626,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,12 +645,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1098,7 +1086,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1285,9 +1273,6 @@
     </xf>
     <xf numFmtId="3" fontId="18" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1427,10 +1412,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1439,13 +1420,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="32" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1522,481 +1496,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="pointage"/>
-      <sheetName val="SUIVI JOURNALIER AVRIL"/>
-      <sheetName val="vs mars"/>
-      <sheetName val="CONTROLES"/>
-      <sheetName val="AVRIL"/>
-      <sheetName val="R. AFFECTEES"/>
-      <sheetName val="point sur les patentes"/>
-      <sheetName val="labo"/>
-      <sheetName val="tendances"/>
-      <sheetName val="Plan d actions "/>
-      <sheetName val="Etats des virements"/>
-      <sheetName val="Etats des virements2"/>
-      <sheetName val="Evaluation"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="reliquataires"/>
-      <sheetName val="suivi des TAV"/>
-      <sheetName val="Etat comparatif 1"/>
-      <sheetName val="Etat comparatif 2"/>
-      <sheetName val="Feuil2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="344">
-          <cell r="E344">
-            <v>491200</v>
-          </cell>
-          <cell r="F344">
-            <v>51300</v>
-          </cell>
-          <cell r="G344">
-            <v>71500</v>
-          </cell>
-          <cell r="H344">
-            <v>0</v>
-          </cell>
-          <cell r="I344">
-            <v>391174</v>
-          </cell>
-          <cell r="J344">
-            <v>96819278.545454532</v>
-          </cell>
-          <cell r="K344">
-            <v>9673987.3636363633</v>
-          </cell>
-          <cell r="L344">
-            <v>1062932.6590909089</v>
-          </cell>
-          <cell r="M344">
-            <v>6590182.4863636354</v>
-          </cell>
-          <cell r="N344">
-            <v>2977476.7287272732</v>
-          </cell>
-          <cell r="O344">
-            <v>21167173</v>
-          </cell>
-          <cell r="P344">
-            <v>1007500</v>
-          </cell>
-          <cell r="Q344">
-            <v>5031410</v>
-          </cell>
-          <cell r="R344">
-            <v>262060.8299999999</v>
-          </cell>
-          <cell r="S344">
-            <v>1624777.1460000004</v>
-          </cell>
-          <cell r="T344">
-            <v>733770.32400000014</v>
-          </cell>
-          <cell r="U344">
-            <v>0</v>
-          </cell>
-          <cell r="V344">
-            <v>2362815.0909090908</v>
-          </cell>
-          <cell r="W344">
-            <v>13578984.181818182</v>
-          </cell>
-          <cell r="X344">
-            <v>0</v>
-          </cell>
-          <cell r="Y344">
-            <v>0</v>
-          </cell>
-          <cell r="Z344">
-            <v>33750.909090909088</v>
-          </cell>
-          <cell r="AA344">
-            <v>0</v>
-          </cell>
-          <cell r="AB344">
-            <v>159755.5018181818</v>
-          </cell>
-          <cell r="AC344">
-            <v>990484.11127272714</v>
-          </cell>
-          <cell r="AD344">
-            <v>447315.4050909091</v>
-          </cell>
-          <cell r="AE344">
-            <v>10418401</v>
-          </cell>
-          <cell r="AF344">
-            <v>0</v>
-          </cell>
-          <cell r="AG344">
-            <v>783701</v>
-          </cell>
-          <cell r="AH344">
-            <v>18150000</v>
-          </cell>
-          <cell r="AI344">
-            <v>606000</v>
-          </cell>
-          <cell r="AJ344">
-            <v>307149.25</v>
-          </cell>
-          <cell r="AK344">
-            <v>23630.25</v>
-          </cell>
-          <cell r="AL344">
-            <v>23630.25</v>
-          </cell>
-          <cell r="AM344">
-            <v>118131.25</v>
-          </cell>
-          <cell r="AN344">
-            <v>18419851</v>
-          </cell>
-          <cell r="AO344">
-            <v>0</v>
-          </cell>
-          <cell r="AP344">
-            <v>0</v>
-          </cell>
-          <cell r="AQ344">
-            <v>0</v>
-          </cell>
-          <cell r="AR344">
-            <v>0</v>
-          </cell>
-          <cell r="AT344">
-            <v>574891</v>
-          </cell>
-          <cell r="AU344">
-            <v>0</v>
-          </cell>
-          <cell r="AV344">
-            <v>0</v>
-          </cell>
-          <cell r="AW344">
-            <v>0</v>
-          </cell>
-          <cell r="AX344">
-            <v>0</v>
-          </cell>
-          <cell r="AY344">
-            <v>440</v>
-          </cell>
-          <cell r="AZ344">
-            <v>0</v>
-          </cell>
-          <cell r="BA344">
-            <v>0</v>
-          </cell>
-          <cell r="BB344">
-            <v>0</v>
-          </cell>
-          <cell r="BC344">
-            <v>0</v>
-          </cell>
-          <cell r="BD344">
-            <v>0</v>
-          </cell>
-          <cell r="BE344">
-            <v>2615265</v>
-          </cell>
-          <cell r="BF344">
-            <v>1221482</v>
-          </cell>
-          <cell r="BG344">
-            <v>1489410</v>
-          </cell>
-          <cell r="BM344">
-            <v>0</v>
-          </cell>
-          <cell r="BP344">
-            <v>0</v>
-          </cell>
-          <cell r="BQ344">
-            <v>585258.30000000005</v>
-          </cell>
-          <cell r="BR344">
-            <v>68499.366666666669</v>
-          </cell>
-          <cell r="BS344">
-            <v>28560</v>
-          </cell>
-          <cell r="BT344">
-            <v>51408</v>
-          </cell>
-          <cell r="BU344">
-            <v>51408</v>
-          </cell>
-          <cell r="BV344">
-            <v>154224</v>
-          </cell>
-          <cell r="BW344">
-            <v>8534.5</v>
-          </cell>
-          <cell r="BX344">
-            <v>15362.1</v>
-          </cell>
-          <cell r="BY344">
-            <v>15362.1</v>
-          </cell>
-          <cell r="BZ344">
-            <v>46086.3</v>
-          </cell>
-          <cell r="CA344">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="279">
-          <cell r="D279">
-            <v>0</v>
-          </cell>
-          <cell r="E279">
-            <v>0</v>
-          </cell>
-          <cell r="F279">
-            <v>0</v>
-          </cell>
-          <cell r="H279">
-            <v>0</v>
-          </cell>
-          <cell r="I279">
-            <v>35631963.209090911</v>
-          </cell>
-          <cell r="J279">
-            <v>0</v>
-          </cell>
-          <cell r="K279">
-            <v>308398.92909090908</v>
-          </cell>
-          <cell r="L279">
-            <v>1912073.3603636362</v>
-          </cell>
-          <cell r="N279">
-            <v>863517.00145454542</v>
-          </cell>
-          <cell r="O279">
-            <v>12978981.272727273</v>
-          </cell>
-          <cell r="P279">
-            <v>0</v>
-          </cell>
-          <cell r="Q279">
-            <v>114789.81272727271</v>
-          </cell>
-          <cell r="R279">
-            <v>711696.83890909085</v>
-          </cell>
-          <cell r="T279">
-            <v>321411.47563636367</v>
-          </cell>
-          <cell r="U279">
-            <v>0</v>
-          </cell>
-          <cell r="V279">
-            <v>435246</v>
-          </cell>
-          <cell r="W279">
-            <v>2872016</v>
-          </cell>
-          <cell r="X279">
-            <v>0</v>
-          </cell>
-          <cell r="Y279">
-            <v>0</v>
-          </cell>
-          <cell r="Z279">
-            <v>0</v>
-          </cell>
-          <cell r="AA279">
-            <v>27407.360000000001</v>
-          </cell>
-          <cell r="AB279">
-            <v>169922.97399999999</v>
-          </cell>
-          <cell r="AD279">
-            <v>76738.956000000006</v>
-          </cell>
-          <cell r="AE279">
-            <v>1500000</v>
-          </cell>
-          <cell r="AF279">
-            <v>0</v>
-          </cell>
-          <cell r="AG279">
-            <v>0</v>
-          </cell>
-          <cell r="AH279">
-            <v>0</v>
-          </cell>
-          <cell r="AK279">
-            <v>0</v>
-          </cell>
-          <cell r="AL279">
-            <v>0</v>
-          </cell>
-          <cell r="AM279">
-            <v>0</v>
-          </cell>
-          <cell r="AN279">
-            <v>0</v>
-          </cell>
-          <cell r="AO279">
-            <v>0</v>
-          </cell>
-          <cell r="AP279">
-            <v>0</v>
-          </cell>
-          <cell r="AQ279">
-            <v>0</v>
-          </cell>
-          <cell r="AS279">
-            <v>0</v>
-          </cell>
-          <cell r="AT279">
-            <v>0</v>
-          </cell>
-          <cell r="AW279">
-            <v>0</v>
-          </cell>
-          <cell r="AZ279">
-            <v>0</v>
-          </cell>
-          <cell r="BA279">
-            <v>62400</v>
-          </cell>
-          <cell r="BB279">
-            <v>15200</v>
-          </cell>
-          <cell r="BC279">
-            <v>14900</v>
-          </cell>
-          <cell r="BD279">
-            <v>105529.2</v>
-          </cell>
-          <cell r="BE279">
-            <v>84394.8</v>
-          </cell>
-          <cell r="BF279">
-            <v>21110.6</v>
-          </cell>
-          <cell r="BG279">
-            <v>3165.3999999999996</v>
-          </cell>
-          <cell r="BH279">
-            <v>0</v>
-          </cell>
-          <cell r="BI279">
-            <v>28300</v>
-          </cell>
-          <cell r="BK279">
-            <v>0</v>
-          </cell>
-          <cell r="BL279">
-            <v>0</v>
-          </cell>
-          <cell r="BM279">
-            <v>43200</v>
-          </cell>
-          <cell r="BN279">
-            <v>4800</v>
-          </cell>
-          <cell r="BO279">
-            <v>0</v>
-          </cell>
-          <cell r="BP279">
-            <v>0</v>
-          </cell>
-          <cell r="BQ279">
-            <v>0</v>
-          </cell>
-          <cell r="BR279">
-            <v>0</v>
-          </cell>
-          <cell r="BS279">
-            <v>0</v>
-          </cell>
-          <cell r="BT279">
-            <v>0</v>
-          </cell>
-          <cell r="BU279">
-            <v>0</v>
-          </cell>
-          <cell r="BV279">
-            <v>0</v>
-          </cell>
-          <cell r="BW279">
-            <v>1184016</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="143">
-          <cell r="E143">
-            <v>1272892.7670000002</v>
-          </cell>
-          <cell r="F143">
-            <v>1017969.7230000002</v>
-          </cell>
-          <cell r="G143">
-            <v>254635.96849999996</v>
-          </cell>
-          <cell r="H143">
-            <v>38181.041499999992</v>
-          </cell>
-          <cell r="I143">
-            <v>0</v>
-          </cell>
-          <cell r="J143">
-            <v>322325.5</v>
-          </cell>
-          <cell r="K143">
-            <v>509782</v>
-          </cell>
-          <cell r="L143">
-            <v>145652</v>
-          </cell>
-          <cell r="M143">
-            <v>72826</v>
-          </cell>
-          <cell r="P143">
-            <v>285525</v>
-          </cell>
-          <cell r="Q143">
-            <v>31725</v>
-          </cell>
-          <cell r="Z143">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2287,14 +1786,14 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="63" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="62" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -2303,56 +1802,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12" customHeight="1">
-      <c r="A1" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="117"/>
+      <c r="A1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="113"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="117"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="117"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
     </row>
     <row r="5" spans="1:7" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
@@ -2364,26 +1863,26 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1">
       <c r="A8" s="3"/>
@@ -2399,21 +1898,17 @@
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9">
-        <v>2022</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -2432,44 +1927,44 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126" t="s">
+      <c r="F12" s="123"/>
+      <c r="G12" s="124"/>
+    </row>
+    <row r="13" spans="1:7" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="118"/>
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-    </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="G13" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A14" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -2480,70 +1975,68 @@
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="26">
         <f>SUM(B16:B28)</f>
-        <v>16983050.18181818</v>
+        <v>0</v>
       </c>
       <c r="C15" s="26">
         <f>SUM(C16:C28)</f>
-        <v>3307262</v>
+        <v>0</v>
       </c>
       <c r="D15" s="26">
         <f>SUM(D16:D28)</f>
-        <v>20290312.18181818</v>
+        <v>0</v>
       </c>
       <c r="E15" s="27">
         <f>B15</f>
-        <v>16983050.18181818</v>
+        <v>0</v>
       </c>
       <c r="F15" s="27">
         <f>C15</f>
-        <v>3307262</v>
+        <v>0</v>
       </c>
       <c r="G15" s="26">
         <f>D15</f>
-        <v>20290312.18181818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="29">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!W344+'[1]SUIVI JOURNALIER AVRIL'!Z344</f>
-        <v>13612735.09090909</v>
-      </c>
-      <c r="C16" s="30">
-        <f>[1]CONTROLES!W279</f>
-        <v>2872016</v>
+        <v>0</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0</v>
       </c>
       <c r="D16" s="31">
         <f>B16+C16</f>
-        <v>16484751.09090909</v>
+        <v>0</v>
       </c>
       <c r="E16" s="29">
         <f>B16</f>
-        <v>13612735.09090909</v>
+        <v>0</v>
       </c>
       <c r="F16" s="29">
         <f>C16</f>
-        <v>2872016</v>
+        <v>0</v>
       </c>
       <c r="G16" s="31">
         <f>E16+F16</f>
-        <v>16484751.09090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12" customHeight="1">
       <c r="A17" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="29">
         <v>0</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="29">
         <v>0</v>
       </c>
       <c r="D17" s="31">
@@ -2565,7 +2058,7 @@
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="30">
         <v>0</v>
@@ -2592,12 +2085,12 @@
     </row>
     <row r="19" spans="1:7" ht="12" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="29">
         <v>0</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="29">
         <v>0</v>
       </c>
       <c r="D19" s="31">
@@ -2619,12 +2112,14 @@
     </row>
     <row r="20" spans="1:7" ht="12" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="29">
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
       <c r="D20" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2644,14 +2139,12 @@
     </row>
     <row r="21" spans="1:7" ht="12" customHeight="1">
       <c r="A21" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="29">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AA344</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="30">
-        <f>[1]CONTROLES!Z279</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="29">
         <v>0</v>
       </c>
       <c r="D21" s="31">
@@ -2673,22 +2166,21 @@
     </row>
     <row r="22" spans="1:7" ht="12" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="29">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!P344</f>
-        <v>1007500</v>
-      </c>
-      <c r="C22" s="30">
+        <v>0</v>
+      </c>
+      <c r="C22" s="29">
         <v>0</v>
       </c>
       <c r="D22" s="31">
         <f t="shared" si="0"/>
-        <v>1007500</v>
+        <v>0</v>
       </c>
       <c r="E22" s="29">
         <f t="shared" si="1"/>
-        <v>1007500</v>
+        <v>0</v>
       </c>
       <c r="F22" s="29">
         <f t="shared" si="1"/>
@@ -2696,17 +2188,17 @@
       </c>
       <c r="G22" s="31">
         <f t="shared" si="2"/>
-        <v>1007500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="12" customHeight="1">
       <c r="A23" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="29">
         <v>0</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="29">
         <v>0</v>
       </c>
       <c r="D23" s="31">
@@ -2728,14 +2220,12 @@
     </row>
     <row r="24" spans="1:7" ht="12" customHeight="1">
       <c r="A24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="29">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!U344+'[1]SUIVI JOURNALIER AVRIL'!X344</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="30">
-        <f>[1]CONTROLES!U279+[1]CONTROLES!X279</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="29">
         <v>0</v>
       </c>
       <c r="D24" s="31">
@@ -2757,41 +2247,39 @@
     </row>
     <row r="25" spans="1:7" ht="12" customHeight="1">
       <c r="A25" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="29">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!V344+'[1]SUIVI JOURNALIER AVRIL'!Y344</f>
-        <v>2362815.0909090908</v>
-      </c>
-      <c r="C25" s="30">
-        <f>[1]CONTROLES!V279+[1]CONTROLES!Y279</f>
-        <v>435246</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="29">
+        <v>0</v>
       </c>
       <c r="D25" s="31">
         <f>B25+C25</f>
-        <v>2798061.0909090908</v>
+        <v>0</v>
       </c>
       <c r="E25" s="29">
         <f t="shared" si="1"/>
-        <v>2362815.0909090908</v>
+        <v>0</v>
       </c>
       <c r="F25" s="29">
         <f t="shared" si="1"/>
-        <v>435246</v>
+        <v>0</v>
       </c>
       <c r="G25" s="31">
         <f t="shared" si="2"/>
-        <v>2798061.0909090908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="12" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="29">
         <v>0</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="29">
         <v>0</v>
       </c>
       <c r="D26" s="31">
@@ -2813,12 +2301,12 @@
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1">
       <c r="A27" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="29">
         <v>0</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="29">
         <v>0</v>
       </c>
       <c r="D27" s="31">
@@ -2840,12 +2328,12 @@
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1">
       <c r="A28" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="29">
         <v>0</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="29">
         <v>0</v>
       </c>
       <c r="D28" s="31">
@@ -2867,36 +2355,36 @@
     </row>
     <row r="29" spans="1:7" ht="12" customHeight="1">
       <c r="A29" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="36">
         <f>SUM(B30:B36)</f>
-        <v>107375639.90909089</v>
+        <v>0</v>
       </c>
       <c r="C29" s="36">
         <f>SUM(C30:C36)</f>
-        <v>35631963.209090911</v>
+        <v>0</v>
       </c>
       <c r="D29" s="37">
         <f>SUM(D30:D36)</f>
-        <v>143007603.11818179</v>
+        <v>0</v>
       </c>
       <c r="E29" s="38">
         <f t="shared" si="1"/>
-        <v>107375639.90909089</v>
+        <v>0</v>
       </c>
       <c r="F29" s="38">
         <f>C29</f>
-        <v>35631963.209090911</v>
+        <v>0</v>
       </c>
       <c r="G29" s="37">
         <f>D29</f>
-        <v>143007603.11818179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="12" customHeight="1">
       <c r="A30" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="39">
         <v>0</v>
@@ -2923,7 +2411,7 @@
     </row>
     <row r="31" spans="1:7" ht="12" customHeight="1">
       <c r="A31" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="39">
         <v>0</v>
@@ -2950,36 +2438,34 @@
     </row>
     <row r="32" spans="1:7" ht="12" customHeight="1">
       <c r="A32" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!J344+'[1]SUIVI JOURNALIER AVRIL'!K344</f>
-        <v>106493265.90909089</v>
-      </c>
-      <c r="C32" s="30">
-        <f>[1]CONTROLES!I279+[1]CONTROLES!J279</f>
-        <v>35631963.209090911</v>
+        <v>0</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0</v>
       </c>
       <c r="D32" s="31">
         <f>B32+C32</f>
-        <v>142125229.11818179</v>
+        <v>0</v>
       </c>
       <c r="E32" s="29">
         <f t="shared" si="1"/>
-        <v>106493265.90909089</v>
+        <v>0</v>
       </c>
       <c r="F32" s="29">
         <f t="shared" si="1"/>
-        <v>35631963.209090911</v>
+        <v>0</v>
       </c>
       <c r="G32" s="31">
         <f t="shared" si="1"/>
-        <v>142125229.11818179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12" customHeight="1">
       <c r="A33" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="39">
         <v>0</v>
@@ -3006,10 +2492,9 @@
     </row>
     <row r="34" spans="1:7" ht="12" customHeight="1">
       <c r="A34" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!H344</f>
         <v>0</v>
       </c>
       <c r="C34" s="30">
@@ -3034,23 +2519,21 @@
     </row>
     <row r="35" spans="1:7" ht="12" customHeight="1">
       <c r="A35" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!I344</f>
-        <v>391174</v>
+        <v>0</v>
       </c>
       <c r="C35" s="30">
-        <f>[1]CONTROLES!H279</f>
         <v>0</v>
       </c>
       <c r="D35" s="31">
         <f t="shared" si="0"/>
-        <v>391174</v>
+        <v>0</v>
       </c>
       <c r="E35" s="29">
         <f t="shared" si="3"/>
-        <v>391174</v>
+        <v>0</v>
       </c>
       <c r="F35" s="29">
         <f t="shared" si="3"/>
@@ -3058,28 +2541,26 @@
       </c>
       <c r="G35" s="31">
         <f t="shared" si="3"/>
-        <v>391174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" customHeight="1">
       <c r="A36" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!E344</f>
-        <v>491200</v>
+        <v>0</v>
       </c>
       <c r="C36" s="30">
-        <f>[1]CONTROLES!D279</f>
         <v>0</v>
       </c>
       <c r="D36" s="31">
         <f t="shared" si="0"/>
-        <v>491200</v>
+        <v>0</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="3"/>
-        <v>491200</v>
+        <v>0</v>
       </c>
       <c r="F36" s="29">
         <f t="shared" si="3"/>
@@ -3087,57 +2568,55 @@
       </c>
       <c r="G36" s="31">
         <f t="shared" si="3"/>
-        <v>491200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12" customHeight="1">
       <c r="A37" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="36">
         <f>SUM(B38:B42)</f>
-        <v>26198583</v>
+        <v>0</v>
       </c>
       <c r="C37" s="36">
         <f>SUM(C38:C42)</f>
-        <v>12978981.272727273</v>
+        <v>0</v>
       </c>
       <c r="D37" s="37">
         <f>SUM(D38:D42)</f>
-        <v>39177564.272727273</v>
+        <v>0</v>
       </c>
       <c r="E37" s="38">
         <f>B37</f>
-        <v>26198583</v>
+        <v>0</v>
       </c>
       <c r="F37" s="38">
         <f>C37</f>
-        <v>12978981.272727273</v>
+        <v>0</v>
       </c>
       <c r="G37" s="37">
         <f>D37</f>
-        <v>39177564.272727273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!Q344</f>
-        <v>5031410</v>
+        <v>0</v>
       </c>
       <c r="C38" s="30">
-        <f>+[1]CONTROLES!P279</f>
         <v>0</v>
       </c>
       <c r="D38" s="31">
         <f t="shared" si="0"/>
-        <v>5031410</v>
+        <v>0</v>
       </c>
       <c r="E38" s="29">
         <f t="shared" ref="E38:G46" si="4">B38</f>
-        <v>5031410</v>
+        <v>0</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" si="4"/>
@@ -3145,41 +2624,39 @@
       </c>
       <c r="G38" s="31">
         <f t="shared" si="3"/>
-        <v>5031410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="12" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!O344</f>
-        <v>21167173</v>
-      </c>
-      <c r="C39" s="30">
-        <f>[1]CONTROLES!O279</f>
-        <v>12978981.272727273</v>
+        <v>0</v>
+      </c>
+      <c r="C39" s="39">
+        <v>0</v>
       </c>
       <c r="D39" s="31">
         <f>B39+C39</f>
-        <v>34146154.272727273</v>
+        <v>0</v>
       </c>
       <c r="E39" s="29">
         <f t="shared" si="4"/>
-        <v>21167173</v>
+        <v>0</v>
       </c>
       <c r="F39" s="29">
         <f t="shared" si="4"/>
-        <v>12978981.272727273</v>
+        <v>0</v>
       </c>
       <c r="G39" s="31">
         <f t="shared" si="3"/>
-        <v>34146154.272727273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="12" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="39">
         <v>0</v>
@@ -3206,7 +2683,7 @@
     </row>
     <row r="41" spans="1:7" ht="12" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="39">
         <v>0</v>
@@ -3233,7 +2710,7 @@
     </row>
     <row r="42" spans="1:7" ht="12" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="39">
         <v>0</v>
@@ -3260,52 +2737,50 @@
     </row>
     <row r="43" spans="1:7" ht="12" customHeight="1">
       <c r="A43" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="36">
         <f>SUM(B44:B45)</f>
-        <v>11202102</v>
+        <v>0</v>
       </c>
       <c r="C43" s="36">
         <f>SUM(C44:C45)</f>
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="D43" s="41">
         <f>SUM(D44:D45)</f>
-        <v>12702102</v>
+        <v>0</v>
       </c>
       <c r="E43" s="38">
         <f t="shared" si="4"/>
-        <v>11202102</v>
+        <v>0</v>
       </c>
       <c r="F43" s="38">
         <f t="shared" si="4"/>
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="G43" s="42">
         <f t="shared" si="4"/>
-        <v>12702102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="12" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AG344</f>
-        <v>783701</v>
+        <v>0</v>
       </c>
       <c r="C44" s="30">
-        <f>[1]CONTROLES!AF279</f>
         <v>0</v>
       </c>
       <c r="D44" s="31">
         <f t="shared" si="0"/>
-        <v>783701</v>
+        <v>0</v>
       </c>
       <c r="E44" s="29">
         <f t="shared" si="4"/>
-        <v>783701</v>
+        <v>0</v>
       </c>
       <c r="F44" s="29">
         <f t="shared" si="4"/>
@@ -3313,70 +2788,68 @@
       </c>
       <c r="G44" s="43">
         <f t="shared" si="4"/>
-        <v>783701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="12" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AE344+'[1]SUIVI JOURNALIER AVRIL'!AF344</f>
-        <v>10418401</v>
-      </c>
-      <c r="C45" s="30">
-        <f>[1]CONTROLES!AE279</f>
-        <v>1500000</v>
+        <v>0</v>
+      </c>
+      <c r="C45" s="39">
+        <v>0</v>
       </c>
       <c r="D45" s="31">
         <f t="shared" si="0"/>
-        <v>11918401</v>
+        <v>0</v>
       </c>
       <c r="E45" s="29">
         <f t="shared" si="4"/>
-        <v>10418401</v>
+        <v>0</v>
       </c>
       <c r="F45" s="29">
         <f t="shared" si="4"/>
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="G45" s="43">
         <f t="shared" si="4"/>
-        <v>11918401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A46" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="45">
         <f>SUM(B43,B37,B29,B15)</f>
-        <v>161759375.09090906</v>
+        <v>0</v>
       </c>
       <c r="C46" s="45">
         <f>SUM(C43,C37,C29,C15)</f>
-        <v>53418206.481818184</v>
+        <v>0</v>
       </c>
       <c r="D46" s="45">
         <f>SUM(D43,D37,D29,D15)</f>
-        <v>215177581.57272726</v>
+        <v>0</v>
       </c>
       <c r="E46" s="46">
         <f>B46</f>
-        <v>161759375.09090906</v>
+        <v>0</v>
       </c>
       <c r="F46" s="46">
         <f t="shared" si="4"/>
-        <v>53418206.481818184</v>
+        <v>0</v>
       </c>
       <c r="G46" s="47">
         <f t="shared" si="4"/>
-        <v>215177581.57272726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A47" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
@@ -3387,81 +2860,75 @@
     </row>
     <row r="48" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A48" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="53">
-        <f>'[1]point sur les patentes'!G143</f>
-        <v>254635.96849999996</v>
-      </c>
-      <c r="C48" s="30">
-        <f>+[1]CONTROLES!BF279</f>
-        <v>21110.6</v>
+        <v>0</v>
+      </c>
+      <c r="C48" s="53">
+        <v>0</v>
       </c>
       <c r="D48" s="31">
         <f t="shared" ref="D48:D63" si="5">B48+C48</f>
-        <v>275746.56849999994</v>
+        <v>0</v>
       </c>
       <c r="E48" s="54">
         <f>B48</f>
-        <v>254635.96849999996</v>
+        <v>0</v>
       </c>
       <c r="F48" s="54">
         <f>C48</f>
-        <v>21110.6</v>
+        <v>0</v>
       </c>
       <c r="G48" s="43">
         <f t="shared" ref="G48:G63" si="6">E48+F48</f>
-        <v>275746.56849999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A49" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="39">
-        <f>'[1]point sur les patentes'!F143</f>
-        <v>1017969.7230000002</v>
-      </c>
-      <c r="C49" s="30">
-        <f>+[1]CONTROLES!BE279</f>
-        <v>84394.8</v>
+        <v>53</v>
+      </c>
+      <c r="B49" s="53">
+        <v>0</v>
+      </c>
+      <c r="C49" s="53">
+        <v>0</v>
       </c>
       <c r="D49" s="31">
         <f t="shared" si="5"/>
-        <v>1102364.5230000003</v>
+        <v>0</v>
       </c>
       <c r="E49" s="54">
         <f t="shared" ref="E49:F63" si="7">B49</f>
-        <v>1017969.7230000002</v>
+        <v>0</v>
       </c>
       <c r="F49" s="54">
         <f t="shared" si="7"/>
-        <v>84394.8</v>
+        <v>0</v>
       </c>
       <c r="G49" s="43">
         <f t="shared" si="6"/>
-        <v>1102364.5230000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A50" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="39">
-        <f>'[1]point sur les patentes'!L143</f>
-        <v>145652</v>
-      </c>
-      <c r="C50" s="30">
-        <f>[1]CONTROLES!BK279</f>
+        <v>54</v>
+      </c>
+      <c r="B50" s="53">
+        <v>0</v>
+      </c>
+      <c r="C50" s="53">
         <v>0</v>
       </c>
       <c r="D50" s="31">
         <f t="shared" si="5"/>
-        <v>145652</v>
+        <v>0</v>
       </c>
       <c r="E50" s="54">
         <f t="shared" si="7"/>
-        <v>145652</v>
+        <v>0</v>
       </c>
       <c r="F50" s="54">
         <f t="shared" si="7"/>
@@ -3469,27 +2936,26 @@
       </c>
       <c r="G50" s="43">
         <f t="shared" si="6"/>
-        <v>145652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A51" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="39">
-        <f>'[1]point sur les patentes'!K143</f>
-        <v>509782</v>
-      </c>
-      <c r="C51" s="30">
+        <v>55</v>
+      </c>
+      <c r="B51" s="53">
+        <v>0</v>
+      </c>
+      <c r="C51" s="53">
         <v>0</v>
       </c>
       <c r="D51" s="31">
         <f t="shared" si="5"/>
-        <v>509782</v>
+        <v>0</v>
       </c>
       <c r="E51" s="54">
         <f t="shared" si="7"/>
-        <v>509782</v>
+        <v>0</v>
       </c>
       <c r="F51" s="54">
         <f t="shared" si="7"/>
@@ -3497,75 +2963,71 @@
       </c>
       <c r="G51" s="43">
         <f t="shared" si="6"/>
-        <v>509782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A52" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BQ344+'[1]point sur les patentes'!P143</f>
-        <v>870783.3</v>
-      </c>
-      <c r="C52" s="30">
-        <f>+[1]CONTROLES!BM279</f>
-        <v>43200</v>
+        <v>56</v>
+      </c>
+      <c r="B52" s="53">
+        <v>0</v>
+      </c>
+      <c r="C52" s="53">
+        <v>0</v>
       </c>
       <c r="D52" s="31">
         <f t="shared" si="5"/>
-        <v>913983.3</v>
+        <v>0</v>
       </c>
       <c r="E52" s="54">
         <f t="shared" si="7"/>
-        <v>870783.3</v>
+        <v>0</v>
       </c>
       <c r="F52" s="54">
         <f t="shared" si="7"/>
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="G52" s="43">
         <f t="shared" si="6"/>
-        <v>913983.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A53" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!M344</f>
-        <v>6590182.4863636354</v>
-      </c>
-      <c r="C53" s="30">
-        <f>[1]CONTROLES!L279</f>
-        <v>1912073.3603636362</v>
+        <v>57</v>
+      </c>
+      <c r="B53" s="53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="53">
+        <v>0</v>
       </c>
       <c r="D53" s="31">
         <f t="shared" si="5"/>
-        <v>8502255.8467272706</v>
+        <v>0</v>
       </c>
       <c r="E53" s="54">
         <f t="shared" si="7"/>
-        <v>6590182.4863636354</v>
+        <v>0</v>
       </c>
       <c r="F53" s="54">
         <f t="shared" si="7"/>
-        <v>1912073.3603636362</v>
+        <v>0</v>
       </c>
       <c r="G53" s="43">
         <f t="shared" si="6"/>
-        <v>8502255.8467272706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A54" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="39">
-        <v>0</v>
-      </c>
-      <c r="C54" s="30">
+        <v>58</v>
+      </c>
+      <c r="B54" s="53">
+        <v>0</v>
+      </c>
+      <c r="C54" s="53">
         <v>0</v>
       </c>
       <c r="D54" s="31">
@@ -3587,70 +3049,66 @@
     </row>
     <row r="55" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A55" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!N344</f>
-        <v>2977476.7287272732</v>
-      </c>
-      <c r="C55" s="30">
-        <f>[1]CONTROLES!N279</f>
-        <v>863517.00145454542</v>
+        <v>59</v>
+      </c>
+      <c r="B55" s="53">
+        <v>0</v>
+      </c>
+      <c r="C55" s="53">
+        <v>0</v>
       </c>
       <c r="D55" s="31">
         <f t="shared" si="5"/>
-        <v>3840993.7301818188</v>
+        <v>0</v>
       </c>
       <c r="E55" s="54">
         <f t="shared" si="7"/>
-        <v>2977476.7287272732</v>
+        <v>0</v>
       </c>
       <c r="F55" s="54">
         <f t="shared" si="7"/>
-        <v>863517.00145454542</v>
+        <v>0</v>
       </c>
       <c r="G55" s="31">
         <f t="shared" si="6"/>
-        <v>3840993.7301818188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A56" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AC344</f>
-        <v>990484.11127272714</v>
-      </c>
-      <c r="C56" s="30">
-        <f>[1]CONTROLES!AB279</f>
-        <v>169922.97399999999</v>
+        <v>60</v>
+      </c>
+      <c r="B56" s="53">
+        <v>0</v>
+      </c>
+      <c r="C56" s="53">
+        <v>0</v>
       </c>
       <c r="D56" s="31">
         <f t="shared" si="5"/>
-        <v>1160407.0852727271</v>
+        <v>0</v>
       </c>
       <c r="E56" s="54">
         <f t="shared" si="7"/>
-        <v>990484.11127272714</v>
+        <v>0</v>
       </c>
       <c r="F56" s="54">
         <f t="shared" si="7"/>
-        <v>169922.97399999999</v>
+        <v>0</v>
       </c>
       <c r="G56" s="31">
         <f t="shared" si="6"/>
-        <v>1160407.0852727271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A57" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="39">
-        <v>0</v>
-      </c>
-      <c r="C57" s="30">
+        <v>61</v>
+      </c>
+      <c r="B57" s="53">
+        <v>0</v>
+      </c>
+      <c r="C57" s="53">
         <v>0</v>
       </c>
       <c r="D57" s="31">
@@ -3672,70 +3130,66 @@
     </row>
     <row r="58" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A58" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AD344</f>
-        <v>447315.4050909091</v>
-      </c>
-      <c r="C58" s="30">
-        <f>[1]CONTROLES!AD279</f>
-        <v>76738.956000000006</v>
+        <v>62</v>
+      </c>
+      <c r="B58" s="53">
+        <v>0</v>
+      </c>
+      <c r="C58" s="53">
+        <v>0</v>
       </c>
       <c r="D58" s="31">
         <f t="shared" si="5"/>
-        <v>524054.36109090911</v>
+        <v>0</v>
       </c>
       <c r="E58" s="54">
         <f t="shared" si="7"/>
-        <v>447315.4050909091</v>
+        <v>0</v>
       </c>
       <c r="F58" s="54">
         <f t="shared" si="7"/>
-        <v>76738.956000000006</v>
+        <v>0</v>
       </c>
       <c r="G58" s="31">
         <f t="shared" si="6"/>
-        <v>524054.36109090911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A59" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!S344</f>
-        <v>1624777.1460000004</v>
-      </c>
-      <c r="C59" s="30">
-        <f>[1]CONTROLES!R279</f>
-        <v>711696.83890909085</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="53">
+        <v>0</v>
+      </c>
+      <c r="C59" s="53">
+        <v>0</v>
       </c>
       <c r="D59" s="31">
         <f t="shared" si="5"/>
-        <v>2336473.9849090911</v>
+        <v>0</v>
       </c>
       <c r="E59" s="54">
         <f t="shared" si="7"/>
-        <v>1624777.1460000004</v>
+        <v>0</v>
       </c>
       <c r="F59" s="54">
         <f t="shared" si="7"/>
-        <v>711696.83890909085</v>
+        <v>0</v>
       </c>
       <c r="G59" s="31">
         <f t="shared" si="6"/>
-        <v>2336473.9849090911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A60" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="39">
-        <v>0</v>
-      </c>
-      <c r="C60" s="30">
+        <v>64</v>
+      </c>
+      <c r="B60" s="53">
+        <v>0</v>
+      </c>
+      <c r="C60" s="53">
         <v>0</v>
       </c>
       <c r="D60" s="31">
@@ -3757,52 +3211,48 @@
     </row>
     <row r="61" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A61" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!T344</f>
-        <v>733770.32400000014</v>
-      </c>
-      <c r="C61" s="30">
-        <f>[1]CONTROLES!T279</f>
-        <v>321411.47563636367</v>
+        <v>65</v>
+      </c>
+      <c r="B61" s="53">
+        <v>0</v>
+      </c>
+      <c r="C61" s="53">
+        <v>0</v>
       </c>
       <c r="D61" s="31">
         <f t="shared" si="5"/>
-        <v>1055181.7996363638</v>
+        <v>0</v>
       </c>
       <c r="E61" s="54">
         <f t="shared" si="7"/>
-        <v>733770.32400000014</v>
+        <v>0</v>
       </c>
       <c r="F61" s="54">
         <f t="shared" si="7"/>
-        <v>321411.47563636367</v>
+        <v>0</v>
       </c>
       <c r="G61" s="31">
         <f t="shared" si="6"/>
-        <v>1055181.7996363638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A62" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!G344</f>
-        <v>71500</v>
-      </c>
-      <c r="C62" s="30">
-        <f>[1]CONTROLES!F279</f>
+        <v>66</v>
+      </c>
+      <c r="B62" s="53">
+        <v>0</v>
+      </c>
+      <c r="C62" s="53">
         <v>0</v>
       </c>
       <c r="D62" s="31">
         <f t="shared" si="5"/>
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="54">
         <f t="shared" si="7"/>
-        <v>71500</v>
+        <v>0</v>
       </c>
       <c r="F62" s="54">
         <f t="shared" si="7"/>
@@ -3810,17 +3260,17 @@
       </c>
       <c r="G62" s="31">
         <f t="shared" si="6"/>
-        <v>71500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="12" customHeight="1">
       <c r="A63" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="39">
-        <v>0</v>
-      </c>
-      <c r="C63" s="30">
+        <v>67</v>
+      </c>
+      <c r="B63" s="53">
+        <v>0</v>
+      </c>
+      <c r="C63" s="53">
         <v>0</v>
       </c>
       <c r="D63" s="31">
@@ -3842,36 +3292,36 @@
     </row>
     <row r="64" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A64" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="56">
         <f>SUM(B48:B63)</f>
-        <v>16234329.192954546</v>
+        <v>0</v>
       </c>
       <c r="C64" s="57">
         <f>SUM(C48:C63)</f>
-        <v>4204066.0063636359</v>
+        <v>0</v>
       </c>
       <c r="D64" s="57">
         <f>SUM(D48:D63)</f>
-        <v>20438395.199318182</v>
+        <v>0</v>
       </c>
       <c r="E64" s="56">
         <f>B64</f>
-        <v>16234329.192954546</v>
+        <v>0</v>
       </c>
       <c r="F64" s="56">
         <f>C64</f>
-        <v>4204066.0063636359</v>
+        <v>0</v>
       </c>
       <c r="G64" s="57">
         <f>D64</f>
-        <v>20438395.199318182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" thickBot="1">
       <c r="A65" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -3882,130 +3332,120 @@
     </row>
     <row r="66" spans="1:7" ht="12" customHeight="1">
       <c r="A66" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="39">
-        <f>+'[1]SUIVI JOURNALIER AVRIL'!BG344+'[1]point sur les patentes'!E143</f>
-        <v>2762302.767</v>
-      </c>
-      <c r="C66" s="30">
-        <f>+[1]CONTROLES!BC279+[1]CONTROLES!BD279</f>
-        <v>120429.2</v>
+        <v>0</v>
+      </c>
+      <c r="C66" s="39">
+        <v>0</v>
       </c>
       <c r="D66" s="31">
         <f t="shared" ref="D66:D73" si="8">B66+C66</f>
-        <v>2882731.9670000002</v>
+        <v>0</v>
       </c>
       <c r="E66" s="58">
         <f t="shared" ref="E66:F73" si="9">B66</f>
-        <v>2762302.767</v>
+        <v>0</v>
       </c>
       <c r="F66" s="58">
         <f t="shared" si="9"/>
-        <v>120429.2</v>
+        <v>0</v>
       </c>
       <c r="G66" s="31">
         <f>E66+F66</f>
-        <v>2882731.9670000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="12" customHeight="1">
       <c r="A67" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BE344</f>
-        <v>2615265</v>
-      </c>
-      <c r="C67" s="30">
-        <f>[1]CONTROLES!BA279</f>
-        <v>62400</v>
+        <v>0</v>
+      </c>
+      <c r="C67" s="39">
+        <v>0</v>
       </c>
       <c r="D67" s="31">
         <f t="shared" si="8"/>
-        <v>2677665</v>
+        <v>0</v>
       </c>
       <c r="E67" s="58">
         <f t="shared" si="9"/>
-        <v>2615265</v>
+        <v>0</v>
       </c>
       <c r="F67" s="58">
         <f t="shared" si="9"/>
-        <v>62400</v>
+        <v>0</v>
       </c>
       <c r="G67" s="31">
         <f>E67+F67</f>
-        <v>2677665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="12" customHeight="1">
       <c r="A68" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="39">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BF344</f>
-        <v>1221482</v>
-      </c>
-      <c r="C68" s="30">
-        <f>[1]CONTROLES!BB279</f>
-        <v>15200</v>
+        <v>0</v>
+      </c>
+      <c r="C68" s="39">
+        <v>0</v>
       </c>
       <c r="D68" s="31">
         <f t="shared" si="8"/>
-        <v>1236682</v>
+        <v>0</v>
       </c>
       <c r="E68" s="58">
         <f t="shared" si="9"/>
-        <v>1221482</v>
+        <v>0</v>
       </c>
       <c r="F68" s="58">
         <f t="shared" si="9"/>
-        <v>15200</v>
+        <v>0</v>
       </c>
       <c r="G68" s="31">
         <f>E68+F68</f>
-        <v>1236682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="12" customHeight="1">
       <c r="A69" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="39">
-        <f>'[1]point sur les patentes'!H143</f>
-        <v>38181.041499999992</v>
-      </c>
-      <c r="C69" s="30">
-        <f>+[1]CONTROLES!BG279</f>
-        <v>3165.3999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="C69" s="39">
+        <v>0</v>
       </c>
       <c r="D69" s="31">
         <f t="shared" si="8"/>
-        <v>41346.441499999994</v>
+        <v>0</v>
       </c>
       <c r="E69" s="58">
         <f t="shared" si="9"/>
-        <v>38181.041499999992</v>
+        <v>0</v>
       </c>
       <c r="F69" s="58">
         <f t="shared" si="9"/>
-        <v>3165.3999999999996</v>
+        <v>0</v>
       </c>
       <c r="G69" s="31">
         <f>E69+F69</f>
-        <v>41346.441499999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="12" customHeight="1">
       <c r="A70" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="39">
-        <f>+'[1]point sur les patentes'!I143</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="30">
-        <f>+[1]CONTROLES!BH279</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="39">
         <v>0</v>
       </c>
       <c r="D70" s="31">
@@ -4027,198 +3467,194 @@
     </row>
     <row r="71" spans="1:7" ht="12" customHeight="1" thickBot="1">
       <c r="A71" s="59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="56">
         <f>SUM(B66:B70)</f>
-        <v>6637230.8085000003</v>
+        <v>0</v>
       </c>
       <c r="C71" s="57">
         <f>SUM(C66:C70)</f>
-        <v>201194.6</v>
+        <v>0</v>
       </c>
       <c r="D71" s="57">
         <f>SUM(D66:D70)</f>
-        <v>6838425.4084999999</v>
+        <v>0</v>
       </c>
       <c r="E71" s="56">
         <f t="shared" si="9"/>
-        <v>6637230.8085000003</v>
+        <v>0</v>
       </c>
       <c r="F71" s="56">
         <f t="shared" si="9"/>
-        <v>201194.6</v>
+        <v>0</v>
       </c>
       <c r="G71" s="57">
         <f>D71</f>
-        <v>6838425.4084999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="12" customHeight="1">
       <c r="A72" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="60">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!F344+'[1]SUIVI JOURNALIER AVRIL'!L344+'[1]SUIVI JOURNALIER AVRIL'!R344+'[1]SUIVI JOURNALIER AVRIL'!AB344+'[1]SUIVI JOURNALIER AVRIL'!AK344+'[1]SUIVI JOURNALIER AVRIL'!AL344+'[1]SUIVI JOURNALIER AVRIL'!AP344+'[1]SUIVI JOURNALIER AVRIL'!BA344+'[1]SUIVI JOURNALIER AVRIL'!BC344+'[1]SUIVI JOURNALIER AVRIL'!BM344+'[1]SUIVI JOURNALIER AVRIL'!BP344+'[1]SUIVI JOURNALIER AVRIL'!BR344+'[1]SUIVI JOURNALIER AVRIL'!BS344+'[1]SUIVI JOURNALIER AVRIL'!BW344+'[1]point sur les patentes'!J143+'[1]point sur les patentes'!M143+'[1]point sur les patentes'!Q143</f>
-        <v>2115779.8575757574</v>
-      </c>
-      <c r="C72" s="30">
-        <f>[1]CONTROLES!E279+[1]CONTROLES!K279+[1]CONTROLES!Q279+[1]CONTROLES!AA279+[1]CONTROLES!AK279+[1]CONTROLES!AO279+[1]CONTROLES!AZ279+[1]CONTROLES!BI279+[1]CONTROLES!BL279+[1]CONTROLES!BN279+[1]CONTROLES!BO279+[1]CONTROLES!BS279</f>
-        <v>483696.10181818181</v>
+        <v>76</v>
+      </c>
+      <c r="B72" s="39">
+        <v>0</v>
+      </c>
+      <c r="C72" s="39">
+        <v>0</v>
       </c>
       <c r="D72" s="31">
         <f>B72+C72</f>
-        <v>2599475.959393939</v>
+        <v>0</v>
       </c>
       <c r="E72" s="30">
         <f t="shared" si="9"/>
-        <v>2115779.8575757574</v>
+        <v>0</v>
       </c>
       <c r="F72" s="30">
         <f t="shared" si="9"/>
-        <v>483696.10181818181</v>
+        <v>0</v>
       </c>
       <c r="G72" s="31">
         <f>E72+F72</f>
-        <v>2599475.959393939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="12" customHeight="1">
       <c r="A73" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="39">
-        <f>+'[1]SUIVI JOURNALIER AVRIL'!CA344+'[1]point sur les patentes'!Z143</f>
-        <v>2</v>
-      </c>
-      <c r="C73" s="30">
-        <f>+[1]CONTROLES!BW279</f>
-        <v>1184016</v>
+        <v>0</v>
+      </c>
+      <c r="C73" s="39">
+        <v>0</v>
       </c>
       <c r="D73" s="31">
         <f t="shared" si="8"/>
-        <v>1184018</v>
+        <v>0</v>
       </c>
       <c r="E73" s="30">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" s="30">
         <f t="shared" si="9"/>
-        <v>1184016</v>
+        <v>0</v>
       </c>
       <c r="G73" s="31">
         <f>E73+F73</f>
-        <v>1184018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="12" customHeight="1" thickBot="1">
-      <c r="A74" s="61" t="s">
-        <v>79</v>
+      <c r="A74" s="60" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="56">
         <f>SUM(B46,B64,B71:B73)</f>
-        <v>186746716.94993934</v>
-      </c>
-      <c r="C74" s="62">
+        <v>0</v>
+      </c>
+      <c r="C74" s="61">
         <f>SUM(C46,C64,C71:C73)</f>
-        <v>59491179.190000005</v>
+        <v>0</v>
       </c>
       <c r="D74" s="57">
         <f>SUM(B74:C74)</f>
-        <v>246237896.13993934</v>
+        <v>0</v>
       </c>
       <c r="E74" s="56">
         <f>B74</f>
-        <v>186746716.94993934</v>
-      </c>
-      <c r="F74" s="62">
+        <v>0</v>
+      </c>
+      <c r="F74" s="61">
         <f>C74</f>
-        <v>59491179.190000005</v>
+        <v>0</v>
       </c>
       <c r="G74" s="57">
         <f>SUM(E74:F74)</f>
-        <v>246237896.13993934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="12" customHeight="1">
-      <c r="A75" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="117"/>
+      <c r="A75" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="113"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="117" t="s">
+      <c r="D75" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="117"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="113"/>
+      <c r="G75" s="113"/>
     </row>
     <row r="76" spans="1:7" ht="7.5" customHeight="1">
-      <c r="A76" s="117" t="s">
+      <c r="A76" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="117"/>
+      <c r="B76" s="113"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="117" t="s">
+      <c r="D76" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="113"/>
+      <c r="G76" s="113"/>
     </row>
     <row r="77" spans="1:7" ht="12" customHeight="1">
-      <c r="A77" s="117" t="s">
+      <c r="A77" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="117"/>
+      <c r="B77" s="113"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="117" t="s">
+      <c r="D77" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="117"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="113"/>
+      <c r="G77" s="113"/>
     </row>
     <row r="78" spans="1:7" ht="6" customHeight="1">
-      <c r="A78" s="117" t="s">
+      <c r="A78" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="117"/>
+      <c r="B78" s="113"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="117" t="s">
+      <c r="D78" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="117"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="113"/>
+      <c r="G78" s="113"/>
     </row>
     <row r="79" spans="1:7" ht="12" customHeight="1"/>
     <row r="80" spans="1:7" ht="12" customHeight="1">
-      <c r="A80" s="118" t="s">
+      <c r="A80" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="118"/>
-      <c r="C80" s="118"/>
-      <c r="D80" s="118"/>
-      <c r="E80" s="118"/>
-      <c r="F80" s="118"/>
-      <c r="G80" s="118"/>
+      <c r="B80" s="114"/>
+      <c r="C80" s="114"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
     </row>
     <row r="81" spans="1:7" ht="12" customHeight="1">
-      <c r="A81" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" s="118"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="118"/>
-      <c r="E81" s="118"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
+      <c r="A81" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="114"/>
+      <c r="C81" s="114"/>
+      <c r="D81" s="114"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="114"/>
+      <c r="G81" s="114"/>
     </row>
     <row r="82" spans="1:7" ht="12" customHeight="1"/>
     <row r="83" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A83" s="64" t="str">
+      <c r="A83" s="63" t="str">
         <f>+A9</f>
         <v>Structure: CRI EST</v>
       </c>
@@ -4226,23 +3662,23 @@
         <f>+B9</f>
         <v xml:space="preserve">EXERCICE : </v>
       </c>
-      <c r="C83" s="65">
+      <c r="C83" s="64">
         <f>+C9</f>
-        <v>2022</v>
-      </c>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
       <c r="F83" s="11" t="str">
         <f>+F9</f>
         <v xml:space="preserve">MOIS : </v>
       </c>
-      <c r="G83" s="1" t="str">
+      <c r="G83" s="1">
         <f>+G9</f>
-        <v>AVRIL</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="12" customHeight="1" thickBot="1">
-      <c r="A84" s="64" t="str">
+      <c r="A84" s="63" t="str">
         <f>+A10</f>
         <v>Unité : en fcfa</v>
       </c>
@@ -4254,219 +3690,227 @@
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="12" customHeight="1">
-      <c r="A85" s="119" t="s">
+      <c r="A85" s="115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="66" t="s">
+      <c r="C85" s="66"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="67"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="67"/>
-      <c r="G85" s="70"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="69"/>
     </row>
     <row r="86" spans="1:7" ht="12" customHeight="1" thickBot="1">
-      <c r="A86" s="120"/>
-      <c r="B86" s="71" t="s">
+      <c r="A86" s="116"/>
+      <c r="B86" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="71"/>
+      <c r="D86" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="72"/>
-      <c r="D86" s="73" t="s">
+      <c r="E86" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="71"/>
+      <c r="G86" s="73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="12" customHeight="1" thickBot="1">
+      <c r="A87" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="51"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="76"/>
+    </row>
+    <row r="88" spans="1:7" ht="12" customHeight="1">
+      <c r="A88" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="E86" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="F86" s="72"/>
-      <c r="G86" s="74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="12" customHeight="1" thickBot="1">
-      <c r="A87" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="77"/>
-    </row>
-    <row r="88" spans="1:7" ht="12" customHeight="1">
-      <c r="A88" s="78" t="s">
+      <c r="B88" s="78">
+        <f>SUM(B89:B94)</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="78">
+        <f>SUM(C89:C94)</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="79">
+        <f>SUM(D89:D94)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="78">
+        <f>SUM(E89:E94)</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="80">
+        <f>C88</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="79">
+        <f>SUM(G89:G94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="12" customHeight="1">
+      <c r="A89" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="79">
-        <f>SUM(B89:B94)</f>
-        <v>574891</v>
-      </c>
-      <c r="C88" s="79">
-        <f>SUM(C89:C94)</f>
-        <v>0</v>
-      </c>
-      <c r="D88" s="80">
-        <f>SUM(D89:D94)</f>
-        <v>574891</v>
-      </c>
-      <c r="E88" s="79">
-        <f>SUM(E89:E94)</f>
-        <v>574891</v>
-      </c>
-      <c r="F88" s="81">
-        <f>C88</f>
-        <v>0</v>
-      </c>
-      <c r="G88" s="80">
-        <f>SUM(G89:G94)</f>
-        <v>574891</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="12" customHeight="1">
-      <c r="A89" s="82" t="s">
+      <c r="B89" s="82">
+        <v>0</v>
+      </c>
+      <c r="C89" s="82">
+        <v>0</v>
+      </c>
+      <c r="D89" s="83">
+        <f>B89+C89</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="82">
+        <f t="shared" ref="E89:E94" si="10">B89</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="84"/>
+      <c r="G89" s="83">
+        <f t="shared" ref="G89:G97" si="11">E89+F89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="12" customHeight="1">
+      <c r="A90" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="83">
-        <v>0</v>
-      </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="84">
-        <f>B89+C89</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="83">
-        <f t="shared" ref="E89:E94" si="10">B89</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="85"/>
-      <c r="G89" s="84">
-        <f t="shared" ref="G89:G97" si="11">E89+F89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="12" customHeight="1">
-      <c r="A90" s="82" t="s">
+      <c r="B90" s="82">
+        <v>0</v>
+      </c>
+      <c r="C90" s="82">
+        <v>0</v>
+      </c>
+      <c r="D90" s="83">
+        <f t="shared" ref="D90:D125" si="12">B90+C90</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="84"/>
+      <c r="G90" s="83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12" customHeight="1">
+      <c r="A91" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="83">
-        <v>0</v>
-      </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="84">
-        <f t="shared" ref="D90:D125" si="12">B90+C90</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="83">
+      <c r="B91" s="82">
+        <v>0</v>
+      </c>
+      <c r="C91" s="82">
+        <v>0</v>
+      </c>
+      <c r="D91" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F90" s="85"/>
-      <c r="G90" s="84">
+      <c r="F91" s="84"/>
+      <c r="G91" s="83">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="12" customHeight="1">
-      <c r="A91" s="86" t="s">
+    <row r="92" spans="1:7" ht="12" customHeight="1">
+      <c r="A92" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="83">
-        <v>0</v>
-      </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="84">
+      <c r="B92" s="82">
+        <v>0</v>
+      </c>
+      <c r="C92" s="82">
+        <v>0</v>
+      </c>
+      <c r="D92" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E91" s="83">
+      <c r="E92" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F91" s="85"/>
-      <c r="G91" s="84">
+      <c r="F92" s="84"/>
+      <c r="G92" s="83">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="12" customHeight="1">
-      <c r="A92" s="82" t="s">
+    <row r="93" spans="1:7" ht="12" customHeight="1">
+      <c r="A93" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B92" s="83">
-        <v>0</v>
-      </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="84">
+      <c r="B93" s="82">
+        <v>0</v>
+      </c>
+      <c r="C93" s="82">
+        <v>0</v>
+      </c>
+      <c r="D93" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E92" s="83">
+      <c r="E93" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F92" s="85"/>
-      <c r="G92" s="84">
+      <c r="F93" s="84"/>
+      <c r="G93" s="83">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="12" customHeight="1">
-      <c r="A93" s="86" t="s">
+    <row r="94" spans="1:7" ht="12" customHeight="1">
+      <c r="A94" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="83">
-        <v>0</v>
-      </c>
-      <c r="C93" s="83"/>
-      <c r="D93" s="84">
+      <c r="B94" s="82">
+        <v>0</v>
+      </c>
+      <c r="C94" s="82">
+        <v>0</v>
+      </c>
+      <c r="D94" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E93" s="83">
+      <c r="E94" s="82">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F93" s="85"/>
-      <c r="G93" s="84">
+      <c r="F94" s="84">
+        <f>C94</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="83">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="12" customHeight="1">
-      <c r="A94" s="86" t="s">
+    <row r="95" spans="1:7" ht="12" customHeight="1">
+      <c r="A95" s="86" t="s">
         <v>89</v>
-      </c>
-      <c r="B94" s="83">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AT344</f>
-        <v>574891</v>
-      </c>
-      <c r="C94" s="83">
-        <f>[1]CONTROLES!AS279</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="84">
-        <f t="shared" si="12"/>
-        <v>574891</v>
-      </c>
-      <c r="E94" s="83">
-        <f t="shared" si="10"/>
-        <v>574891</v>
-      </c>
-      <c r="F94" s="85">
-        <f>C94</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="84">
-        <f t="shared" si="11"/>
-        <v>574891</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="12" customHeight="1">
-      <c r="A95" s="87" t="s">
-        <v>90</v>
       </c>
       <c r="B95" s="36">
         <f>SUM(B96:B97)</f>
@@ -4476,7 +3920,7 @@
         <f>SUM(C96:C97)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="88">
+      <c r="D95" s="87">
         <f>SUM(D96:D97)</f>
         <v>0</v>
       </c>
@@ -4484,71 +3928,69 @@
         <f>SUM(E96:E97)</f>
         <v>0</v>
       </c>
-      <c r="F95" s="89"/>
-      <c r="G95" s="88">
+      <c r="F95" s="88"/>
+      <c r="G95" s="87">
         <f>SUM(G96:G97)</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="12" customHeight="1">
-      <c r="A96" s="86" t="s">
+      <c r="A96" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="82">
+        <v>0</v>
+      </c>
+      <c r="C96" s="82">
+        <v>0</v>
+      </c>
+      <c r="D96" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="82">
+        <f>B96</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="84">
+        <f>C96</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="12" customHeight="1">
+      <c r="A97" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="83">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AU344</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="83">
-        <f>[1]CONTROLES!AT279</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="84">
+      <c r="B97" s="82">
+        <v>0</v>
+      </c>
+      <c r="C97" s="82">
+        <v>0</v>
+      </c>
+      <c r="D97" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E96" s="83">
-        <f>B96</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="85">
-        <f>C96</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="84">
+      <c r="E97" s="82">
+        <f>B97</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="84">
+        <f>C97</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="83">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="12" customHeight="1">
-      <c r="A97" s="86" t="s">
+    <row r="98" spans="1:7" ht="12" customHeight="1">
+      <c r="A98" s="89" t="s">
         <v>92</v>
-      </c>
-      <c r="B97" s="83">
-        <v>0</v>
-      </c>
-      <c r="C97" s="83">
-        <v>0</v>
-      </c>
-      <c r="D97" s="84">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="83">
-        <f>B97</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="85">
-        <f>C97</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="84">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="12" customHeight="1">
-      <c r="A98" s="90" t="s">
-        <v>93</v>
       </c>
       <c r="B98" s="36">
         <f>SUM(B99:B107)</f>
@@ -4570,606 +4012,588 @@
         <f>SUM(F99:F107)</f>
         <v>0</v>
       </c>
-      <c r="G98" s="88">
+      <c r="G98" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="12" customHeight="1">
       <c r="A99" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B99" s="91">
-        <v>0</v>
-      </c>
-      <c r="C99" s="91">
-        <f>[1]CONTROLES!AT282</f>
-        <v>0</v>
-      </c>
-      <c r="D99" s="84">
+        <v>93</v>
+      </c>
+      <c r="B99" s="90">
+        <v>0</v>
+      </c>
+      <c r="C99" s="90">
+        <v>0</v>
+      </c>
+      <c r="D99" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E99" s="91">
+      <c r="E99" s="90">
         <f>B99</f>
         <v>0</v>
       </c>
-      <c r="F99" s="91">
+      <c r="F99" s="90">
         <f>C99</f>
         <v>0</v>
       </c>
-      <c r="G99" s="84">
+      <c r="G99" s="83">
         <f t="shared" ref="G99:G107" si="13">E99+F99</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="12" customHeight="1">
       <c r="A100" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100" s="91">
-        <v>0</v>
-      </c>
-      <c r="C100" s="91">
-        <f>[1]CONTROLES!AT283</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="84">
+        <v>94</v>
+      </c>
+      <c r="B100" s="90">
+        <v>0</v>
+      </c>
+      <c r="C100" s="90">
+        <v>0</v>
+      </c>
+      <c r="D100" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E100" s="91">
+      <c r="E100" s="90">
         <f t="shared" ref="E100:F107" si="14">B100</f>
         <v>0</v>
       </c>
-      <c r="F100" s="91">
+      <c r="F100" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G100" s="84">
+      <c r="G100" s="83">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="12" customHeight="1">
       <c r="A101" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="91">
-        <v>0</v>
-      </c>
-      <c r="C101" s="91">
-        <f>[1]CONTROLES!AT284</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="84">
+        <v>95</v>
+      </c>
+      <c r="B101" s="90">
+        <v>0</v>
+      </c>
+      <c r="C101" s="90">
+        <v>0</v>
+      </c>
+      <c r="D101" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E101" s="91">
+      <c r="E101" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F101" s="91">
+      <c r="F101" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G101" s="84">
+      <c r="G101" s="83">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="12" customHeight="1">
       <c r="A102" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B102" s="91">
-        <v>0</v>
-      </c>
-      <c r="C102" s="91">
-        <f>[1]CONTROLES!AT285</f>
-        <v>0</v>
-      </c>
-      <c r="D102" s="84">
+        <v>96</v>
+      </c>
+      <c r="B102" s="90">
+        <v>0</v>
+      </c>
+      <c r="C102" s="90">
+        <v>0</v>
+      </c>
+      <c r="D102" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E102" s="91">
+      <c r="E102" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F102" s="91">
+      <c r="F102" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G102" s="84">
+      <c r="G102" s="83">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="12" customHeight="1">
       <c r="A103" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" s="91">
-        <v>0</v>
-      </c>
-      <c r="C103" s="91">
-        <f>[1]CONTROLES!AT286</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="84">
+        <v>97</v>
+      </c>
+      <c r="B103" s="90">
+        <v>0</v>
+      </c>
+      <c r="C103" s="90">
+        <v>0</v>
+      </c>
+      <c r="D103" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E103" s="91">
+      <c r="E103" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F103" s="91">
+      <c r="F103" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G103" s="84">
+      <c r="G103" s="83">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="12" customHeight="1">
       <c r="A104" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="91">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AV344</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="91">
-        <f>[1]CONTROLES!AT287</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="84">
+        <v>98</v>
+      </c>
+      <c r="B104" s="90">
+        <v>0</v>
+      </c>
+      <c r="C104" s="90">
+        <v>0</v>
+      </c>
+      <c r="D104" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E104" s="91">
+      <c r="E104" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F104" s="91">
+      <c r="F104" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G104" s="84">
+      <c r="G104" s="83">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="12" customHeight="1">
       <c r="A105" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="91">
-        <v>0</v>
-      </c>
-      <c r="C105" s="91">
-        <f>[1]CONTROLES!AT288</f>
-        <v>0</v>
-      </c>
-      <c r="D105" s="84">
+        <v>99</v>
+      </c>
+      <c r="B105" s="90">
+        <v>0</v>
+      </c>
+      <c r="C105" s="90">
+        <v>0</v>
+      </c>
+      <c r="D105" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E105" s="91">
+      <c r="E105" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F105" s="91">
+      <c r="F105" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G105" s="84">
+      <c r="G105" s="83">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="12" customHeight="1">
       <c r="A106" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="91">
-        <v>0</v>
-      </c>
-      <c r="C106" s="91">
-        <f>[1]CONTROLES!AT289</f>
-        <v>0</v>
-      </c>
-      <c r="D106" s="84">
+        <v>100</v>
+      </c>
+      <c r="B106" s="90">
+        <v>0</v>
+      </c>
+      <c r="C106" s="90">
+        <v>0</v>
+      </c>
+      <c r="D106" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E106" s="91">
+      <c r="E106" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F106" s="91">
+      <c r="F106" s="90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G106" s="84">
+      <c r="G106" s="83">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="12" customHeight="1">
       <c r="A107" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="90">
+        <v>0</v>
+      </c>
+      <c r="C107" s="90">
+        <v>0</v>
+      </c>
+      <c r="D107" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="90">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="90">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="12" customHeight="1">
+      <c r="A108" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B107" s="91">
-        <f>+'[1]SUIVI JOURNALIER AVRIL'!BB344</f>
-        <v>0</v>
-      </c>
-      <c r="C107" s="91">
-        <f>[1]CONTROLES!AT290</f>
-        <v>0</v>
-      </c>
-      <c r="D107" s="84">
+      <c r="B108" s="92">
+        <f>SUM(B109:B111)</f>
+        <v>0</v>
+      </c>
+      <c r="C108" s="92">
+        <f>SUM(C109:C111)</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="92">
+        <f>SUM(D109:D111)</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="93">
+        <f>B108</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="92">
+        <f>C108</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="92">
+        <f>D108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="12" customHeight="1">
+      <c r="A109" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B109" s="95">
+        <v>0</v>
+      </c>
+      <c r="C109" s="90">
+        <v>0</v>
+      </c>
+      <c r="D109" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E107" s="91">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F107" s="91">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="12" customHeight="1">
-      <c r="A108" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B108" s="93">
-        <f>SUM(B109:B111)</f>
-        <v>18419851</v>
-      </c>
-      <c r="C108" s="93">
-        <f>SUM(C109:C111)</f>
-        <v>0</v>
-      </c>
-      <c r="D108" s="93">
-        <f>SUM(D109:D111)</f>
-        <v>18419851</v>
-      </c>
-      <c r="E108" s="94">
-        <f>B108</f>
-        <v>18419851</v>
-      </c>
-      <c r="F108" s="93">
-        <f>C108</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="93">
-        <f>D108</f>
-        <v>18419851</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="12" customHeight="1">
-      <c r="A109" s="95" t="s">
+      <c r="E109" s="95">
+        <f t="shared" ref="E109:F111" si="15">B109</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="95">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="83">
+        <f>E109+F109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="12" customHeight="1">
+      <c r="A110" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="B109" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AO344</f>
-        <v>0</v>
-      </c>
-      <c r="C109" s="91"/>
-      <c r="D109" s="84">
+      <c r="B110" s="95">
+        <v>0</v>
+      </c>
+      <c r="C110" s="90">
+        <v>0</v>
+      </c>
+      <c r="D110" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E109" s="96">
-        <f t="shared" ref="E109:F111" si="15">B109</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="96">
+      <c r="E110" s="95">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G109" s="84">
-        <f>E109+F109</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="12" customHeight="1">
-      <c r="A110" s="95" t="s">
+      <c r="F110" s="95">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="83">
+        <f>E110+F110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="12" customHeight="1">
+      <c r="A111" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="B110" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AN344</f>
-        <v>18419851</v>
-      </c>
-      <c r="C110" s="91">
-        <f>[1]CONTROLES!AM279</f>
-        <v>0</v>
-      </c>
-      <c r="D110" s="84">
+      <c r="B111" s="95">
+        <v>0</v>
+      </c>
+      <c r="C111" s="90">
+        <v>0</v>
+      </c>
+      <c r="D111" s="83">
         <f t="shared" si="12"/>
-        <v>18419851</v>
-      </c>
-      <c r="E110" s="96">
+        <v>0</v>
+      </c>
+      <c r="E111" s="95">
         <f t="shared" si="15"/>
-        <v>18419851</v>
-      </c>
-      <c r="F110" s="96">
+        <v>0</v>
+      </c>
+      <c r="F111" s="95">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G110" s="84">
-        <f>E110+F110</f>
-        <v>18419851</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="12" customHeight="1">
-      <c r="A111" s="95" t="s">
+      <c r="G111" s="83">
+        <f>E111+F111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12" customHeight="1">
+      <c r="A112" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="B111" s="83">
-        <v>0</v>
-      </c>
-      <c r="C111" s="91">
-        <f>+[1]CONTROLES!AN279</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="84">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E111" s="96">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="96">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="84">
-        <f>E111+F111</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="12" customHeight="1">
-      <c r="A112" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B112" s="88">
+      <c r="B112" s="87">
         <f>SUM(B113:B119)</f>
-        <v>19063149.25</v>
-      </c>
-      <c r="C112" s="88">
+        <v>0</v>
+      </c>
+      <c r="C112" s="87">
         <f>SUM(C113:C119)</f>
         <v>0</v>
       </c>
-      <c r="D112" s="88">
+      <c r="D112" s="87">
         <f>SUM(D113:D119)</f>
-        <v>19063149.25</v>
+        <v>0</v>
       </c>
       <c r="E112" s="36">
         <f>B112</f>
-        <v>19063149.25</v>
-      </c>
-      <c r="F112" s="89">
+        <v>0</v>
+      </c>
+      <c r="F112" s="88">
         <f>+C112</f>
         <v>0</v>
       </c>
-      <c r="G112" s="88">
+      <c r="G112" s="87">
         <f>D112</f>
-        <v>19063149.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="12" customHeight="1">
       <c r="A113" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113" s="83">
-        <v>0</v>
-      </c>
-      <c r="C113" s="91">
-        <v>0</v>
-      </c>
-      <c r="D113" s="84">
+        <v>107</v>
+      </c>
+      <c r="B113" s="82">
+        <v>0</v>
+      </c>
+      <c r="C113" s="90">
+        <v>0</v>
+      </c>
+      <c r="D113" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E113" s="83">
+      <c r="E113" s="82">
         <f>B113</f>
         <v>0</v>
       </c>
-      <c r="F113" s="83">
+      <c r="F113" s="82">
         <f>C113</f>
         <v>0</v>
       </c>
-      <c r="G113" s="84">
+      <c r="G113" s="83">
         <f t="shared" ref="G113:G119" si="16">E113+F113</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="12" customHeight="1">
       <c r="A114" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B114" s="83">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AH344</f>
-        <v>18150000</v>
-      </c>
-      <c r="C114" s="91">
-        <f>[1]CONTROLES!AG279</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="84">
+        <v>108</v>
+      </c>
+      <c r="B114" s="82">
+        <v>0</v>
+      </c>
+      <c r="C114" s="90">
+        <v>0</v>
+      </c>
+      <c r="D114" s="83">
         <f t="shared" si="12"/>
-        <v>18150000</v>
-      </c>
-      <c r="E114" s="83">
+        <v>0</v>
+      </c>
+      <c r="E114" s="82">
         <f t="shared" ref="E114:F126" si="17">B114</f>
-        <v>18150000</v>
-      </c>
-      <c r="F114" s="83">
+        <v>0</v>
+      </c>
+      <c r="F114" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G114" s="84">
+      <c r="G114" s="83">
         <f t="shared" si="16"/>
-        <v>18150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="12" customHeight="1">
       <c r="A115" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B115" s="83">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AI344</f>
-        <v>606000</v>
-      </c>
-      <c r="C115" s="91">
-        <f>[1]CONTROLES!AH279</f>
-        <v>0</v>
-      </c>
-      <c r="D115" s="84">
+        <v>109</v>
+      </c>
+      <c r="B115" s="82">
+        <v>0</v>
+      </c>
+      <c r="C115" s="90">
+        <v>0</v>
+      </c>
+      <c r="D115" s="83">
         <f t="shared" si="12"/>
-        <v>606000</v>
-      </c>
-      <c r="E115" s="83">
+        <v>0</v>
+      </c>
+      <c r="E115" s="82">
         <f t="shared" si="17"/>
-        <v>606000</v>
-      </c>
-      <c r="F115" s="83">
+        <v>0</v>
+      </c>
+      <c r="F115" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G115" s="84">
+      <c r="G115" s="83">
         <f t="shared" si="16"/>
-        <v>606000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="12" customHeight="1">
       <c r="A116" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116" s="83">
-        <v>0</v>
-      </c>
-      <c r="C116" s="91">
-        <v>0</v>
-      </c>
-      <c r="D116" s="84">
+        <v>110</v>
+      </c>
+      <c r="B116" s="82">
+        <v>0</v>
+      </c>
+      <c r="C116" s="90">
+        <v>0</v>
+      </c>
+      <c r="D116" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E116" s="83">
+      <c r="E116" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F116" s="83">
+      <c r="F116" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G116" s="84">
+      <c r="G116" s="83">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="12" customHeight="1">
       <c r="A117" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B117" s="83">
-        <v>0</v>
-      </c>
-      <c r="C117" s="91">
-        <v>0</v>
-      </c>
-      <c r="D117" s="84">
+        <v>111</v>
+      </c>
+      <c r="B117" s="82">
+        <v>0</v>
+      </c>
+      <c r="C117" s="90">
+        <v>0</v>
+      </c>
+      <c r="D117" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E117" s="83">
+      <c r="E117" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F117" s="83">
+      <c r="F117" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G117" s="84">
+      <c r="G117" s="83">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="12" customHeight="1">
       <c r="A118" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" s="83">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AJ344</f>
-        <v>307149.25</v>
-      </c>
-      <c r="C118" s="91">
-        <v>0</v>
-      </c>
-      <c r="D118" s="84">
+        <v>112</v>
+      </c>
+      <c r="B118" s="82">
+        <v>0</v>
+      </c>
+      <c r="C118" s="90">
+        <v>0</v>
+      </c>
+      <c r="D118" s="83">
         <f t="shared" si="12"/>
-        <v>307149.25</v>
-      </c>
-      <c r="E118" s="83">
+        <v>0</v>
+      </c>
+      <c r="E118" s="82">
         <f t="shared" si="17"/>
-        <v>307149.25</v>
-      </c>
-      <c r="F118" s="83">
+        <v>0</v>
+      </c>
+      <c r="F118" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G118" s="84">
+      <c r="G118" s="83">
         <f t="shared" si="16"/>
-        <v>307149.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="12" customHeight="1">
       <c r="A119" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="82">
+        <v>0</v>
+      </c>
+      <c r="C119" s="90">
+        <v>0</v>
+      </c>
+      <c r="D119" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="12" customHeight="1">
+      <c r="A120" s="91" t="s">
         <v>114</v>
-      </c>
-      <c r="B119" s="83">
-        <v>0</v>
-      </c>
-      <c r="C119" s="91">
-        <v>0</v>
-      </c>
-      <c r="D119" s="84">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="83">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="83">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="84">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="12" customHeight="1">
-      <c r="A120" s="92" t="s">
-        <v>115</v>
       </c>
       <c r="B120" s="36">
         <f>SUM(B121:B125)</f>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="C120" s="36">
         <f>SUM(C121:C125)</f>
@@ -5177,188 +4601,185 @@
       </c>
       <c r="D120" s="36">
         <f>SUM(D121:D125)</f>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="E120" s="36">
         <f t="shared" si="17"/>
-        <v>440</v>
-      </c>
-      <c r="F120" s="89"/>
-      <c r="G120" s="88">
+        <v>0</v>
+      </c>
+      <c r="F120" s="88"/>
+      <c r="G120" s="87">
         <f>D120</f>
-        <v>440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="12" customHeight="1">
       <c r="A121" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B121" s="83">
-        <v>0</v>
-      </c>
-      <c r="C121" s="91">
-        <v>0</v>
-      </c>
-      <c r="D121" s="84">
+        <v>115</v>
+      </c>
+      <c r="B121" s="82">
+        <v>0</v>
+      </c>
+      <c r="C121" s="90">
+        <v>0</v>
+      </c>
+      <c r="D121" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E121" s="83">
+      <c r="E121" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F121" s="83">
+      <c r="F121" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G121" s="84">
+      <c r="G121" s="83">
         <f>E121+F121</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="12" customHeight="1">
       <c r="A122" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="83">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AW344</f>
-        <v>0</v>
-      </c>
-      <c r="C122" s="91">
-        <v>0</v>
-      </c>
-      <c r="D122" s="84">
+        <v>116</v>
+      </c>
+      <c r="B122" s="82">
+        <v>0</v>
+      </c>
+      <c r="C122" s="90">
+        <v>0</v>
+      </c>
+      <c r="D122" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E122" s="83">
+      <c r="E122" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F122" s="83">
+      <c r="F122" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G122" s="84">
+      <c r="G122" s="83">
         <f>E122+F122</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="12" customHeight="1">
       <c r="A123" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" s="83">
-        <v>0</v>
-      </c>
-      <c r="C123" s="91">
-        <v>0</v>
-      </c>
-      <c r="D123" s="84">
+        <v>117</v>
+      </c>
+      <c r="B123" s="82">
+        <v>0</v>
+      </c>
+      <c r="C123" s="90">
+        <v>0</v>
+      </c>
+      <c r="D123" s="83">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E123" s="83">
+      <c r="E123" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F123" s="83">
+      <c r="F123" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G123" s="84">
+      <c r="G123" s="83">
         <f>E123+F123</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="12" customHeight="1">
       <c r="A124" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B124" s="83">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AY344</f>
-        <v>440</v>
-      </c>
-      <c r="C124" s="91">
-        <f>[1]CONTROLES!AW279</f>
-        <v>0</v>
-      </c>
-      <c r="D124" s="84">
+        <v>118</v>
+      </c>
+      <c r="B124" s="82">
+        <v>0</v>
+      </c>
+      <c r="C124" s="90">
+        <v>0</v>
+      </c>
+      <c r="D124" s="83">
         <f t="shared" si="12"/>
-        <v>440</v>
-      </c>
-      <c r="E124" s="83">
+        <v>0</v>
+      </c>
+      <c r="E124" s="82">
         <f t="shared" si="17"/>
-        <v>440</v>
-      </c>
-      <c r="F124" s="83">
+        <v>0</v>
+      </c>
+      <c r="F124" s="82">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G124" s="84">
+      <c r="G124" s="83">
         <f>E124+F124</f>
-        <v>440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="12" customHeight="1">
       <c r="A125" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" s="82">
+        <v>0</v>
+      </c>
+      <c r="C125" s="90">
+        <v>0</v>
+      </c>
+      <c r="D125" s="83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="83">
+        <f>E125+F125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="12" customHeight="1" thickBot="1">
+      <c r="A126" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="B125" s="83">
-        <v>0</v>
-      </c>
-      <c r="C125" s="91">
-        <v>0</v>
-      </c>
-      <c r="D125" s="84">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E125" s="83">
+      <c r="B126" s="92">
+        <f>SUM(B120,B112,B108,B98,B95,B88)</f>
+        <v>0</v>
+      </c>
+      <c r="C126" s="92">
+        <f>SUM(C120,C112,C108,C98,C95,C88)</f>
+        <v>0</v>
+      </c>
+      <c r="D126" s="92">
+        <f>SUM(D120,D112,D108,D98,D95,D88)</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="97">
+        <f>B126</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="97">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F125" s="83">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="84">
-        <f>E125+F125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="12" customHeight="1" thickBot="1">
-      <c r="A126" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="B126" s="93">
-        <f>SUM(B120,B112,B108,B98,B95,B88)</f>
-        <v>38058331.25</v>
-      </c>
-      <c r="C126" s="93">
-        <f>SUM(C120,C112,C108,C98,C95,C88)</f>
-        <v>0</v>
-      </c>
-      <c r="D126" s="93">
-        <f>SUM(D120,D112,D108,D98,D95,D88)</f>
-        <v>38058331.25</v>
-      </c>
-      <c r="E126" s="98">
-        <f>B126</f>
-        <v>38058331.25</v>
-      </c>
-      <c r="F126" s="98">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="93">
+      <c r="G126" s="92">
         <f>D126</f>
-        <v>38058331.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" thickBot="1">
       <c r="A127" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127" s="51"/>
       <c r="C127" s="48"/>
@@ -5368,669 +4789,656 @@
       <c r="G127" s="50"/>
     </row>
     <row r="128" spans="1:7" ht="12" customHeight="1">
-      <c r="A128" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" s="100">
-        <v>0</v>
-      </c>
-      <c r="C128" s="101">
-        <v>0</v>
-      </c>
-      <c r="D128" s="84">
+      <c r="A128" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128" s="99">
+        <v>0</v>
+      </c>
+      <c r="C128" s="100">
+        <v>0</v>
+      </c>
+      <c r="D128" s="83">
         <f t="shared" ref="D128:D149" si="18">B128+C128</f>
         <v>0</v>
       </c>
-      <c r="E128" s="102">
+      <c r="E128" s="101">
         <f>B128</f>
         <v>0</v>
       </c>
-      <c r="F128" s="102">
+      <c r="F128" s="101">
         <f>C128</f>
         <v>0</v>
       </c>
-      <c r="G128" s="84">
+      <c r="G128" s="83">
         <f t="shared" ref="G128:G149" si="19">E128+F128</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="12" customHeight="1">
       <c r="A129" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" s="103">
-        <v>0</v>
-      </c>
-      <c r="C129" s="104">
-        <v>0</v>
-      </c>
-      <c r="D129" s="84">
+        <v>123</v>
+      </c>
+      <c r="B129" s="99">
+        <v>0</v>
+      </c>
+      <c r="C129" s="102">
+        <v>0</v>
+      </c>
+      <c r="D129" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E129" s="102">
+      <c r="E129" s="101">
         <f t="shared" ref="E129:F146" si="20">B129</f>
         <v>0</v>
       </c>
-      <c r="F129" s="102">
+      <c r="F129" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G129" s="84">
+      <c r="G129" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="12" customHeight="1">
       <c r="A130" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B130" s="103">
-        <v>0</v>
-      </c>
-      <c r="C130" s="104">
-        <v>0</v>
-      </c>
-      <c r="D130" s="84">
+        <v>124</v>
+      </c>
+      <c r="B130" s="99">
+        <v>0</v>
+      </c>
+      <c r="C130" s="102">
+        <v>0</v>
+      </c>
+      <c r="D130" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E130" s="102">
+      <c r="E130" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F130" s="102">
+      <c r="F130" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G130" s="84">
+      <c r="G130" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="12" customHeight="1">
       <c r="A131" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B131" s="103">
-        <v>0</v>
-      </c>
-      <c r="C131" s="104">
-        <v>0</v>
-      </c>
-      <c r="D131" s="84">
+        <v>125</v>
+      </c>
+      <c r="B131" s="99">
+        <v>0</v>
+      </c>
+      <c r="C131" s="102">
+        <v>0</v>
+      </c>
+      <c r="D131" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E131" s="102">
+      <c r="E131" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F131" s="102">
+      <c r="F131" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G131" s="84">
+      <c r="G131" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="12" customHeight="1">
       <c r="A132" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B132" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BT344</f>
-        <v>51408</v>
-      </c>
-      <c r="C132" s="105">
-        <f>[1]CONTROLES!BP279</f>
-        <v>0</v>
-      </c>
-      <c r="D132" s="84">
+        <v>126</v>
+      </c>
+      <c r="B132" s="99">
+        <v>0</v>
+      </c>
+      <c r="C132" s="103">
+        <v>0</v>
+      </c>
+      <c r="D132" s="83">
         <f t="shared" si="18"/>
-        <v>51408</v>
-      </c>
-      <c r="E132" s="102">
+        <v>0</v>
+      </c>
+      <c r="E132" s="101">
         <f t="shared" si="20"/>
-        <v>51408</v>
-      </c>
-      <c r="F132" s="102">
+        <v>0</v>
+      </c>
+      <c r="F132" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G132" s="84">
+      <c r="G132" s="83">
         <f t="shared" si="19"/>
-        <v>51408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="12" customHeight="1">
       <c r="A133" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B133" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BU344</f>
-        <v>51408</v>
-      </c>
-      <c r="C133" s="105">
-        <f>[1]CONTROLES!BQ279</f>
-        <v>0</v>
-      </c>
-      <c r="D133" s="84">
+        <v>127</v>
+      </c>
+      <c r="B133" s="99">
+        <v>0</v>
+      </c>
+      <c r="C133" s="103">
+        <v>0</v>
+      </c>
+      <c r="D133" s="83">
         <f t="shared" si="18"/>
-        <v>51408</v>
-      </c>
-      <c r="E133" s="102">
+        <v>0</v>
+      </c>
+      <c r="E133" s="101">
         <f t="shared" si="20"/>
-        <v>51408</v>
-      </c>
-      <c r="F133" s="102">
+        <v>0</v>
+      </c>
+      <c r="F133" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G133" s="84">
+      <c r="G133" s="83">
         <f t="shared" si="19"/>
-        <v>51408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="12" customHeight="1">
       <c r="A134" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B134" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BV344</f>
-        <v>154224</v>
-      </c>
-      <c r="C134" s="105">
-        <f>[1]CONTROLES!BR279</f>
-        <v>0</v>
-      </c>
-      <c r="D134" s="84">
+        <v>128</v>
+      </c>
+      <c r="B134" s="99">
+        <v>0</v>
+      </c>
+      <c r="C134" s="103">
+        <v>0</v>
+      </c>
+      <c r="D134" s="83">
         <f t="shared" si="18"/>
-        <v>154224</v>
-      </c>
-      <c r="E134" s="102">
+        <v>0</v>
+      </c>
+      <c r="E134" s="101">
         <f t="shared" si="20"/>
-        <v>154224</v>
-      </c>
-      <c r="F134" s="102">
+        <v>0</v>
+      </c>
+      <c r="F134" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G134" s="84">
+      <c r="G134" s="83">
         <f t="shared" si="19"/>
-        <v>154224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="12" customHeight="1">
       <c r="A135" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BX344</f>
-        <v>15362.1</v>
-      </c>
-      <c r="C135" s="105">
-        <f>[1]CONTROLES!BT279</f>
-        <v>0</v>
-      </c>
-      <c r="D135" s="84">
+        <v>129</v>
+      </c>
+      <c r="B135" s="99">
+        <v>0</v>
+      </c>
+      <c r="C135" s="103">
+        <v>0</v>
+      </c>
+      <c r="D135" s="83">
         <f t="shared" si="18"/>
-        <v>15362.1</v>
-      </c>
-      <c r="E135" s="102">
+        <v>0</v>
+      </c>
+      <c r="E135" s="101">
         <f t="shared" si="20"/>
-        <v>15362.1</v>
-      </c>
-      <c r="F135" s="102">
+        <v>0</v>
+      </c>
+      <c r="F135" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G135" s="84">
+      <c r="G135" s="83">
         <f t="shared" si="19"/>
-        <v>15362.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="12" customHeight="1">
       <c r="A136" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B136" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BY344</f>
-        <v>15362.1</v>
-      </c>
-      <c r="C136" s="105">
-        <f>[1]CONTROLES!BU279</f>
-        <v>0</v>
-      </c>
-      <c r="D136" s="84">
+        <v>130</v>
+      </c>
+      <c r="B136" s="99">
+        <v>0</v>
+      </c>
+      <c r="C136" s="99">
+        <v>0</v>
+      </c>
+      <c r="D136" s="83">
         <f t="shared" si="18"/>
-        <v>15362.1</v>
-      </c>
-      <c r="E136" s="102">
+        <v>0</v>
+      </c>
+      <c r="E136" s="101">
         <f t="shared" si="20"/>
-        <v>15362.1</v>
-      </c>
-      <c r="F136" s="102">
+        <v>0</v>
+      </c>
+      <c r="F136" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G136" s="84">
+      <c r="G136" s="83">
         <f t="shared" si="19"/>
-        <v>15362.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="12" customHeight="1">
       <c r="A137" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" s="99">
+        <v>0</v>
+      </c>
+      <c r="C137" s="99">
+        <v>0</v>
+      </c>
+      <c r="D137" s="83">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E137" s="101">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F137" s="101">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="12" customHeight="1">
+      <c r="A138" s="104" t="s">
         <v>132</v>
       </c>
-      <c r="B137" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BZ344</f>
-        <v>46086.3</v>
-      </c>
-      <c r="C137" s="105">
-        <f>+[1]CONTROLES!BV279</f>
-        <v>0</v>
-      </c>
-      <c r="D137" s="84">
+      <c r="B138" s="99">
+        <v>0</v>
+      </c>
+      <c r="C138" s="99">
+        <v>0</v>
+      </c>
+      <c r="D138" s="83">
         <f t="shared" si="18"/>
-        <v>46086.3</v>
-      </c>
-      <c r="E137" s="102">
+        <v>0</v>
+      </c>
+      <c r="E138" s="101">
         <f t="shared" si="20"/>
-        <v>46086.3</v>
-      </c>
-      <c r="F137" s="102">
+        <v>0</v>
+      </c>
+      <c r="F138" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G137" s="84">
+      <c r="G138" s="83">
         <f t="shared" si="19"/>
-        <v>46086.3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="12" customHeight="1">
-      <c r="A138" s="106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="12" customHeight="1">
+      <c r="A139" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="B138" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AQ344</f>
-        <v>0</v>
-      </c>
-      <c r="C138" s="105">
-        <f>[1]CONTROLES!AP279</f>
-        <v>0</v>
-      </c>
-      <c r="D138" s="84">
+      <c r="B139" s="99">
+        <v>0</v>
+      </c>
+      <c r="C139" s="99">
+        <v>0</v>
+      </c>
+      <c r="D139" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E138" s="102">
+      <c r="E139" s="101">
+        <f>B139</f>
+        <v>0</v>
+      </c>
+      <c r="F139" s="101">
+        <f>C139</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="12" customHeight="1">
+      <c r="A140" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="B140" s="99">
+        <v>0</v>
+      </c>
+      <c r="C140" s="99">
+        <v>0</v>
+      </c>
+      <c r="D140" s="83">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E140" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F138" s="102">
+      <c r="F140" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G138" s="84">
+      <c r="G140" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="12" customHeight="1">
-      <c r="A139" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="B139" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AR344</f>
-        <v>0</v>
-      </c>
-      <c r="C139" s="105">
-        <f>[1]CONTROLES!AQ279</f>
-        <v>0</v>
-      </c>
-      <c r="D139" s="84">
+    <row r="141" spans="1:7" ht="12" customHeight="1">
+      <c r="A141" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="B141" s="99">
+        <v>0</v>
+      </c>
+      <c r="C141" s="99">
+        <v>0</v>
+      </c>
+      <c r="D141" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E139" s="102">
-        <f>B139</f>
-        <v>0</v>
-      </c>
-      <c r="F139" s="102">
-        <f>C139</f>
-        <v>0</v>
-      </c>
-      <c r="G139" s="84">
+      <c r="E141" s="101">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F141" s="101">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="12" customHeight="1">
-      <c r="A140" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="B140" s="103">
-        <v>0</v>
-      </c>
-      <c r="C140" s="107">
-        <v>0</v>
-      </c>
-      <c r="D140" s="84">
+    <row r="142" spans="1:7" ht="12" customHeight="1">
+      <c r="A142" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B142" s="99">
+        <v>0</v>
+      </c>
+      <c r="C142" s="99">
+        <v>0</v>
+      </c>
+      <c r="D142" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E140" s="102">
+      <c r="E142" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F140" s="102">
+      <c r="F142" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G140" s="84">
+      <c r="G142" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="12" customHeight="1">
-      <c r="A141" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="B141" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AX344</f>
-        <v>0</v>
-      </c>
-      <c r="C141" s="105"/>
-      <c r="D141" s="84">
+    <row r="143" spans="1:7" ht="12" customHeight="1">
+      <c r="A143" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B143" s="99">
+        <v>0</v>
+      </c>
+      <c r="C143" s="99">
+        <v>0</v>
+      </c>
+      <c r="D143" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E141" s="102">
+      <c r="E143" s="101">
+        <f>B143</f>
+        <v>0</v>
+      </c>
+      <c r="F143" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F141" s="102">
+      <c r="G143" s="83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="12" customHeight="1">
+      <c r="A144" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="B144" s="99">
+        <v>0</v>
+      </c>
+      <c r="C144" s="99">
+        <v>0</v>
+      </c>
+      <c r="D144" s="83">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E144" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G141" s="84">
+      <c r="F144" s="101">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="12" customHeight="1">
-      <c r="A142" s="106" t="s">
-        <v>137</v>
-      </c>
-      <c r="B142" s="96">
-        <f>+'[1]SUIVI JOURNALIER AVRIL'!AZ344</f>
-        <v>0</v>
-      </c>
-      <c r="C142" s="105"/>
-      <c r="D142" s="84">
+    <row r="145" spans="1:7" ht="12" customHeight="1">
+      <c r="A145" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B145" s="95">
+        <v>0</v>
+      </c>
+      <c r="C145" s="99">
+        <v>0</v>
+      </c>
+      <c r="D145" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E142" s="102">
+      <c r="E145" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F142" s="102">
+      <c r="F145" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G142" s="84">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="12" customHeight="1">
-      <c r="A143" s="106" t="s">
-        <v>138</v>
-      </c>
-      <c r="B143" s="96">
-        <v>0</v>
-      </c>
-      <c r="C143" s="105"/>
-      <c r="D143" s="84">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="102">
-        <f>B143</f>
-        <v>0</v>
-      </c>
-      <c r="F143" s="102">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="84">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="12" customHeight="1">
-      <c r="A144" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="B144" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!AM344</f>
-        <v>118131.25</v>
-      </c>
-      <c r="C144" s="108">
-        <f>[1]CONTROLES!AL279</f>
-        <v>0</v>
-      </c>
-      <c r="D144" s="84">
-        <f t="shared" si="18"/>
-        <v>118131.25</v>
-      </c>
-      <c r="E144" s="102">
-        <f t="shared" si="20"/>
-        <v>118131.25</v>
-      </c>
-      <c r="F144" s="102">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="84">
-        <f t="shared" si="19"/>
-        <v>118131.25</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="12" customHeight="1">
-      <c r="A145" s="106" t="s">
-        <v>140</v>
-      </c>
-      <c r="B145" s="96">
-        <v>0</v>
-      </c>
-      <c r="C145" s="105"/>
-      <c r="D145" s="84">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="102">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F145" s="102">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="84">
+      <c r="G145" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="12" customHeight="1">
       <c r="A146" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B146" s="96">
-        <f>'[1]SUIVI JOURNALIER AVRIL'!BD344</f>
-        <v>0</v>
-      </c>
-      <c r="C146" s="105"/>
-      <c r="D146" s="84">
+        <v>140</v>
+      </c>
+      <c r="B146" s="95">
+        <v>0</v>
+      </c>
+      <c r="C146" s="99">
+        <v>0</v>
+      </c>
+      <c r="D146" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E146" s="102">
+      <c r="E146" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F146" s="102">
+      <c r="F146" s="101">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G146" s="84">
+      <c r="G146" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="12" customHeight="1">
-      <c r="A147" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="B147" s="94">
+      <c r="A147" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B147" s="93">
         <f>SUM(B128:B146)</f>
-        <v>451981.74999999994</v>
-      </c>
-      <c r="C147" s="94">
+        <v>0</v>
+      </c>
+      <c r="C147" s="93">
         <f>SUM(C128:C146)</f>
         <v>0</v>
       </c>
-      <c r="D147" s="110">
+      <c r="D147" s="106">
         <f>SUM(D128:D146)</f>
-        <v>451981.74999999994</v>
-      </c>
-      <c r="E147" s="94">
+        <v>0</v>
+      </c>
+      <c r="E147" s="93">
         <f>B147</f>
-        <v>451981.74999999994</v>
-      </c>
-      <c r="F147" s="94">
+        <v>0</v>
+      </c>
+      <c r="F147" s="93">
         <f>C147</f>
         <v>0</v>
       </c>
-      <c r="G147" s="88">
+      <c r="G147" s="87">
         <f>D147</f>
-        <v>451981.74999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="12" customHeight="1">
       <c r="A148" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B148" s="96">
-        <v>0</v>
-      </c>
-      <c r="C148" s="105"/>
-      <c r="D148" s="84">
+        <v>141</v>
+      </c>
+      <c r="B148" s="95">
+        <v>0</v>
+      </c>
+      <c r="C148" s="95">
+        <v>0</v>
+      </c>
+      <c r="D148" s="83">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="E148" s="96">
+      <c r="E148" s="95">
         <f t="shared" ref="E148:F150" si="21">B148</f>
         <v>0</v>
       </c>
-      <c r="F148" s="96">
+      <c r="F148" s="95">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="G148" s="84">
+      <c r="G148" s="83">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="12" customHeight="1">
       <c r="A149" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="95">
+        <v>0</v>
+      </c>
+      <c r="C149" s="95">
+        <v>0</v>
+      </c>
+      <c r="D149" s="83">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E149" s="95">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="95">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="12" customHeight="1" thickBot="1">
+      <c r="A150" s="60" t="s">
         <v>143</v>
-      </c>
-      <c r="B149" s="96">
-        <v>0</v>
-      </c>
-      <c r="C149" s="105"/>
-      <c r="D149" s="84">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E149" s="96">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F149" s="96">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="84">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="12" customHeight="1" thickBot="1">
-      <c r="A150" s="61" t="s">
-        <v>144</v>
       </c>
       <c r="B150" s="56">
         <f>SUM(B147,B126,B148,B149)</f>
-        <v>38510313</v>
-      </c>
-      <c r="C150" s="93">
+        <v>0</v>
+      </c>
+      <c r="C150" s="92">
         <f>SUM(C147,C126,C148,C149)</f>
         <v>0</v>
       </c>
-      <c r="D150" s="93">
+      <c r="D150" s="92">
         <f>SUM(D147,D126,D148,D149)</f>
-        <v>38510313</v>
+        <v>0</v>
       </c>
       <c r="E150" s="56">
         <f t="shared" si="21"/>
-        <v>38510313</v>
-      </c>
-      <c r="F150" s="93">
+        <v>0</v>
+      </c>
+      <c r="F150" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="G150" s="93">
+      <c r="G150" s="92">
         <f>D150</f>
-        <v>38510313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="B152" s="63" t="s">
+      <c r="B152" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C152" s="109"/>
+      <c r="D152" s="110"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="B153" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="C152" s="113" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D152" s="114"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="B153" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="C153" s="113" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D153" s="114"/>
+      <c r="C153" s="109"/>
+      <c r="D153" s="110"/>
     </row>
     <row r="154" spans="1:7">
-      <c r="B154" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="C154" s="115" t="e">
+      <c r="B154" s="107" t="s">
+        <v>144</v>
+      </c>
+      <c r="C154" s="111">
         <f>+C152+C153</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D154" s="116"/>
+        <v>0</v>
+      </c>
+      <c r="D154" s="112"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="D157" s="112"/>
+      <c r="D157" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="27">
